--- a/Lab4/lab4.xlsx
+++ b/Lab4/lab4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\Desktop\praca_semestralna\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloaded\MRSy-master\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9403F60-D43C-4D9C-9643-BFEE590E602F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9648" xr2:uid="{26B58C87-1482-4D64-81D9-98611AC01090}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>lab4</t>
   </si>
@@ -47,11 +46,20 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <t>zad4_1</t>
+  </si>
+  <si>
+    <t>zad4_2</t>
+  </si>
+  <si>
+    <t>zad4_3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +111,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -147,6 +155,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -336,7 +345,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2DE6-4D81-9BD1-FF64FB37AB24}"/>
             </c:ext>
@@ -350,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="496608976"/>
-        <c:axId val="406871600"/>
+        <c:axId val="399607144"/>
+        <c:axId val="399617336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="496608976"/>
+        <c:axId val="399607144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -401,6 +410,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -467,12 +477,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406871600"/>
+        <c:crossAx val="399617336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406871600"/>
+        <c:axId val="399617336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -519,6 +529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -585,7 +596,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496608976"/>
+        <c:crossAx val="399607144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,14 +610,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -642,7 +653,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -686,6 +697,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -875,7 +887,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD8D-4C06-A122-CD8E86672117}"/>
             </c:ext>
@@ -889,11 +901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="511808912"/>
-        <c:axId val="510107280"/>
+        <c:axId val="399611064"/>
+        <c:axId val="399611848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="511808912"/>
+        <c:axId val="399611064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -940,6 +952,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1006,12 +1019,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510107280"/>
+        <c:crossAx val="399611848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510107280"/>
+        <c:axId val="399611848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1058,6 +1071,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1124,7 +1138,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511808912"/>
+        <c:crossAx val="399611064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1138,14 +1152,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1181,7 +1195,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -1225,6 +1239,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1261,8 +1276,751 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="7"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1414,7 +2172,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DEA2-42D2-8653-CE4567DDE64B}"/>
             </c:ext>
@@ -1428,11 +2186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405429296"/>
-        <c:axId val="628962272"/>
+        <c:axId val="402436912"/>
+        <c:axId val="402438872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405429296"/>
+        <c:axId val="402436912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1479,6 +2237,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1545,12 +2304,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628962272"/>
+        <c:crossAx val="402438872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="628962272"/>
+        <c:axId val="402438872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1598,6 +2357,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1664,7 +2424,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405429296"/>
+        <c:crossAx val="402436912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1678,14 +2438,1640 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> błędu w zależności od liczby węzłów (skala log-log) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31113757655293089"/>
+                  <c:y val="0.20728783902012249"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$19:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>9.990000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$19:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.35589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.02E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DE6-4D81-9BD1-FF64FB37AB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="373777296"/>
+        <c:axId val="373780040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="373777296"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373780040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="373780040"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373777296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres błędu w zależności od liczby węzłów (skala log-log) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17026312335958005"/>
+                  <c:y val="5.8009988334791485E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$19:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>9.990000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$19:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.10879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD8D-4C06-A122-CD8E86672117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404198816"/>
+        <c:axId val="404200384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404198816"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404200384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404200384"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404198816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres błędu w zależności od liczby węzłów (skala log-log) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17026312335958005"/>
+                  <c:y val="5.8009988334791485E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$19:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>9.990000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$19:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>6.1103999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>3.4704000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.5574999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>5.6508000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.4209999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>6.3280000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>3.563E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD8D-4C06-A122-CD8E86672117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375502976"/>
+        <c:axId val="375503760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375502976"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375503760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375503760"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375502976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1840,6 +4226,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2873,6 +5379,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3408,7 +7462,7 @@
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +7498,7 @@
         <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,22 +7519,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7194</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5584</xdr:rowOff>
+      <xdr:colOff>175282</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:colOff>190948</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100403</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5CB8D5-6679-45F0-9770-7EE871182362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB5CB8D5-6679-45F0-9770-7EE871182362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,6 +7547,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>314598</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>173082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3797,26 +7965,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463DDD1B-E62D-4220-A47B-CC7FC58E47C6}">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>5</v>
       </c>
@@ -3824,7 +7992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3835,7 +8003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3855,7 +8023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>1/(10+1)</f>
         <v>9.0909090909090912E-2</v>
@@ -3878,7 +8046,7 @@
         <v>1.3878000000000001E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>1/(25+1)</f>
         <v>3.8461538461538464E-2</v>
@@ -3901,7 +8069,7 @@
         <v>3.0530999999999998E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>1/(50+1)</f>
         <v>1.9607843137254902E-2</v>
@@ -3924,7 +8092,7 @@
         <v>2.3869999999999999E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>1/(75+1)</f>
         <v>1.3157894736842105E-2</v>
@@ -3947,7 +8115,7 @@
         <v>1.7763999999999998E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1/(100+1)</f>
         <v>9.9009900990099011E-3</v>
@@ -3970,7 +8138,7 @@
         <v>2.9697999999999999E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>1/(150+1)</f>
         <v>6.6225165562913907E-3</v>
@@ -3993,7 +8161,7 @@
         <v>6.2172000000000001E-15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>1/(250+1)</f>
         <v>3.9840637450199202E-3</v>
@@ -4016,7 +8184,7 @@
         <v>3.8664000000000002E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>1/(500+1)</f>
         <v>1.996007984031936E-3</v>
@@ -4039,7 +8207,7 @@
         <v>1.035E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>1/(750+1)</f>
         <v>1.3315579227696406E-3</v>
@@ -4062,7 +8230,7 @@
         <v>1.2043E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>1/(1000+1)</f>
         <v>9.99000999000999E-4</v>
@@ -4085,12 +8253,241 @@
         <v>5.8036999999999998E-13</v>
       </c>
     </row>
-    <row r="22" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="C19">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="E19">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.85E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="C20">
+        <v>3.85E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.85E-2</v>
+      </c>
+      <c r="F20">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="B21">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.32E-2</v>
+      </c>
+      <c r="B22">
+        <v>5.33E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.32E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.1103999999999998E-4</v>
+      </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="S22" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="B23">
+        <v>4.02E-2</v>
+      </c>
+      <c r="C23">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.4704000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6.6E-3</v>
+      </c>
+      <c r="B24">
+        <v>2.69E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D24">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E24">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.5574999999999999E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B25">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D25">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.6508000000000002E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2E-3</v>
+      </c>
+      <c r="B26">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="C26">
+        <v>2E-3</v>
+      </c>
+      <c r="D26">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>2E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.4209999999999999E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="B27">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="C27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.3280000000000002E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="B28">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="D28">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.563E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Lab4/lab4.xlsx
+++ b/Lab4/lab4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>lab4</t>
   </si>
@@ -55,11 +55,17 @@
   <si>
     <t>zad4_3</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -232,8 +238,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.31113757655293089"/>
-                  <c:y val="0.20728783902012249"/>
+                  <c:x val="-0.34515102366495526"/>
+                  <c:y val="0.43147183525136279"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -268,9 +274,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$5:$A$14</c:f>
+              <c:f>Arkusz1!$B$5:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -307,9 +313,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$14</c:f>
+              <c:f>Arkusz1!$C$5:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.6434999999999999E-4</c:v>
@@ -359,11 +365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399607144"/>
-        <c:axId val="399617336"/>
+        <c:axId val="407221920"/>
+        <c:axId val="407222312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399607144"/>
+        <c:axId val="407221920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -440,7 +446,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -477,15 +483,16 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399617336"/>
+        <c:crossAx val="407222312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399617336"/>
+        <c:axId val="407222312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -559,7 +566,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -596,7 +603,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399607144"/>
+        <c:crossAx val="407221920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -774,8 +781,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17026312335958005"/>
-                  <c:y val="5.8009988334791485E-2"/>
+                  <c:x val="-0.28088917123206086"/>
+                  <c:y val="0.27127891125002762"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -810,9 +817,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$5:$C$14</c:f>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.7874524760689217E-2</c:v>
@@ -849,9 +856,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$5:$D$14</c:f>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.4725999999999999E-5</c:v>
@@ -901,11 +908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399611064"/>
-        <c:axId val="399611848"/>
+        <c:axId val="407223880"/>
+        <c:axId val="407219568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399611064"/>
+        <c:axId val="407223880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -982,7 +989,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1019,15 +1026,16 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399611848"/>
+        <c:crossAx val="407219568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399611848"/>
+        <c:axId val="407219568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1101,7 +1109,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1138,7 +1146,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399611064"/>
+        <c:crossAx val="407223880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1302,9 +1310,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -1341,9 +1349,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -1407,9 +1415,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -1446,9 +1454,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -1516,9 +1524,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -1555,9 +1563,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -1625,9 +1633,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -1664,9 +1672,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -1730,9 +1738,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -1769,9 +1777,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -1835,9 +1843,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -1874,9 +1882,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -1940,9 +1948,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -1979,9 +1987,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -2095,9 +2103,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:f>Arkusz1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -2134,9 +2142,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.3878000000000001E-16</c:v>
@@ -2186,11 +2194,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402436912"/>
-        <c:axId val="402438872"/>
+        <c:axId val="407212904"/>
+        <c:axId val="407227016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402436912"/>
+        <c:axId val="407212904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2267,7 +2275,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2304,12 +2312,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402438872"/>
+        <c:crossAx val="407227016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402438872"/>
+        <c:axId val="407227016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2387,7 +2395,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2424,7 +2432,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402436912"/>
+        <c:crossAx val="407212904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2638,9 +2646,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$19:$A$28</c:f>
+              <c:f>Arkusz1!$B$19:$B$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0899999999999995E-2</c:v>
@@ -2669,7 +2677,7 @@
                 <c:pt idx="8">
                   <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
+                <c:pt idx="9">
                   <c:v>9.990000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2677,9 +2685,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$19:$B$28</c:f>
+              <c:f>Arkusz1!$C$19:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.35589999999999999</c:v>
@@ -2729,11 +2737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373777296"/>
-        <c:axId val="373780040"/>
+        <c:axId val="407226624"/>
+        <c:axId val="407227800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373777296"/>
+        <c:axId val="407226624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2810,7 +2818,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2847,12 +2855,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373780040"/>
+        <c:crossAx val="407227800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373780040"/>
+        <c:axId val="407227800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2929,7 +2937,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2966,7 +2974,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373777296"/>
+        <c:crossAx val="407226624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3180,9 +3188,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$19:$C$28</c:f>
+              <c:f>Arkusz1!$E$19:$E$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0899999999999995E-2</c:v>
@@ -3211,7 +3219,7 @@
                 <c:pt idx="8">
                   <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
+                <c:pt idx="9">
                   <c:v>9.990000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3219,9 +3227,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$19:$D$28</c:f>
+              <c:f>Arkusz1!$F$19:$F$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.10879999999999999</c:v>
@@ -3271,11 +3279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404198816"/>
-        <c:axId val="404200384"/>
+        <c:axId val="407226232"/>
+        <c:axId val="407224664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404198816"/>
+        <c:axId val="407226232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3352,7 +3360,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3389,12 +3397,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404200384"/>
+        <c:crossAx val="407224664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404200384"/>
+        <c:axId val="407224664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3471,7 +3479,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3508,7 +3516,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404198816"/>
+        <c:crossAx val="407226232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3722,9 +3730,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$19:$E$28</c:f>
+              <c:f>Arkusz1!$H$19:$H$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9.0899999999999995E-2</c:v>
@@ -3753,7 +3761,7 @@
                 <c:pt idx="8">
                   <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
+                <c:pt idx="9">
                   <c:v>9.990000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -3761,9 +3769,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$19:$F$28</c:f>
+              <c:f>Arkusz1!$I$19:$I$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.7199999999999998E-2</c:v>
@@ -3774,25 +3782,25 @@
                 <c:pt idx="2">
                   <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
+                <c:pt idx="3">
                   <c:v>6.1103999999999998E-4</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
+                <c:pt idx="4">
                   <c:v>3.4704000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
+                <c:pt idx="5">
                   <c:v>1.5574999999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
+                <c:pt idx="6">
                   <c:v>5.6508000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
+                <c:pt idx="7">
                   <c:v>1.4209999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
+                <c:pt idx="8">
                   <c:v>6.3280000000000002E-6</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
+                <c:pt idx="9">
                   <c:v>3.563E-6</c:v>
                 </c:pt>
               </c:numCache>
@@ -3813,11 +3821,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="375502976"/>
-        <c:axId val="375503760"/>
+        <c:axId val="409716312"/>
+        <c:axId val="409713960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="375502976"/>
+        <c:axId val="409716312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3894,7 +3902,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3931,12 +3939,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375503760"/>
+        <c:crossAx val="409713960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="375503760"/>
+        <c:axId val="409713960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4013,7 +4021,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4050,7 +4058,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375502976"/>
+        <c:crossAx val="409716312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7446,23 +7454,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>14152</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4627</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>29392</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7482,23 +7490,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189139</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>155122</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7518,23 +7526,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>175282</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128848</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346732</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>185998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190948</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>100403</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>362398</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>157553</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB5CB8D5-6679-45F0-9770-7EE871182362}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5CB8D5-6679-45F0-9770-7EE871182362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7570,7 +7578,7 @@
         <xdr:cNvPr id="5" name="Wykres 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7608,7 +7616,7 @@
         <xdr:cNvPr id="7" name="Wykres 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7630,23 +7638,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>168728</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Wykres 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7966,55 +7974,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -8022,260 +8035,359 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
         <f>1/(10+1)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>3.6434999999999999E-4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <f>((2/PI())/(10+1))</f>
         <v>5.7874524760689217E-2</v>
       </c>
-      <c r="D5">
+      <c r="F5" s="1">
         <v>3.4725999999999999E-5</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
         <f>1/(10+1)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5" s="1">
         <v>1.3878000000000001E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
         <f>1/(25+1)</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>6.5347999999999998E-5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
         <f>((2/PI())/(25+1))</f>
         <v>2.4485375860291592E-2</v>
       </c>
-      <c r="D6">
+      <c r="F6" s="1">
         <v>6.3203000000000003E-6</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
         <f>1/(25+1)</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6" s="1">
         <v>3.0530999999999998E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
         <f>1/(50+1)</f>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>1.7010000000000001E-5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
         <f>((2/PI())/(50+1))</f>
         <v>1.2482740634658459E-2</v>
       </c>
-      <c r="D7">
+      <c r="F7" s="1">
         <v>1.6462E-6</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
         <f>1/(50+1)</f>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="1">
         <v>2.3869999999999999E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1">
         <f>1/(75+1)</f>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>7.6611000000000002E-6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
         <f>((2/PI())/(75+1))</f>
         <v>8.3765759522050186E-3</v>
       </c>
-      <c r="D8">
+      <c r="F8" s="1">
         <v>7.4165999999999999E-7</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1">
         <f>1/(75+1)</f>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8" s="1">
         <v>1.7763999999999998E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
         <f>1/(100+1)</f>
         <v>9.9009900990099011E-3</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1">
         <v>4.3378999999999996E-6</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
         <f>((2/PI())/(100+1))</f>
         <v>6.3031660630453604E-3</v>
       </c>
-      <c r="D9">
+      <c r="F9" s="1">
         <v>4.2005000000000001E-7</v>
       </c>
-      <c r="E9">
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1">
         <f>1/(100+1)</f>
         <v>9.9009900990099011E-3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="I9" s="1">
         <v>2.9697999999999999E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1">
         <f>1/(150+1)</f>
         <v>6.6225165562913907E-3</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>1.9408000000000001E-6</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1">
         <f>((2/PI())/(150+1))</f>
         <v>4.2160249825667637E-3</v>
       </c>
-      <c r="D10">
+      <c r="F10" s="1">
         <v>1.8797999999999999E-7</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1">
         <f>1/(150+1)</f>
         <v>6.6225165562913907E-3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10" s="1">
         <v>6.2172000000000001E-15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="B11" s="1">
         <f>1/(250+1)</f>
         <v>3.9840637450199202E-3</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="1">
         <v>7.0241999999999996E-7</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11" s="1">
         <f>((2/PI())/(250+1))</f>
         <v>2.5363337544525156E-3</v>
       </c>
-      <c r="D11">
+      <c r="F11" s="1">
         <v>6.8040000000000006E-8</v>
       </c>
-      <c r="E11">
+      <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11" s="1">
         <f>1/(250+1)</f>
         <v>3.9840637450199202E-3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="I11" s="1">
         <v>3.8664000000000002E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12" s="1">
         <f>1/(500+1)</f>
         <v>1.996007984031936E-3</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>1.7631E-7</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1">
         <f>((2/PI())/(500+1))</f>
         <v>1.2706981484382862E-3</v>
       </c>
-      <c r="D12">
+      <c r="F12" s="1">
         <v>1.7077999999999999E-8</v>
       </c>
-      <c r="E12">
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1">
         <f>1/(500+1)</f>
         <v>1.996007984031936E-3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12" s="1">
         <v>1.035E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>750</v>
+      </c>
+      <c r="B13" s="1">
         <f>1/(750+1)</f>
         <v>1.3315579227696406E-3</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="1">
         <v>7.8458E-8</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <v>750</v>
+      </c>
+      <c r="E13" s="1">
         <f>((2/PI())/(750+1))</f>
         <v>8.47696101687858E-4</v>
       </c>
-      <c r="D13">
+      <c r="F13" s="1">
         <v>1.707E-8</v>
       </c>
-      <c r="E13">
+      <c r="G13">
+        <v>750</v>
+      </c>
+      <c r="H13" s="1">
         <f>1/(750+1)</f>
         <v>1.3315579227696406E-3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13" s="1">
         <v>1.2043E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="1">
         <f>1/(1000+1)</f>
         <v>9.99000999000999E-4</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>4.4161000000000001E-8</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="1">
         <f>((2/PI())/(1000+1))</f>
         <v>6.3598378857900235E-4</v>
       </c>
-      <c r="D14">
+      <c r="F14" s="1">
         <v>4.2731999999999997E-9</v>
       </c>
-      <c r="E14">
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1">
         <f>1/(1000+1)</f>
         <v>9.99000999000999E-4</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14" s="1">
         <v>5.8036999999999998E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -8283,210 +8395,309 @@
       <c r="F18" t="s">
         <v>6</v>
       </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="1">
         <v>0.35589999999999999</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="D19">
+      <c r="F19" s="1">
         <v>0.10879999999999999</v>
       </c>
-      <c r="E19">
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="F19">
+      <c r="I19" s="1">
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
         <v>3.85E-2</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="1">
         <v>0.15409999999999999</v>
       </c>
-      <c r="C20">
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
         <v>3.85E-2</v>
       </c>
-      <c r="D20">
+      <c r="F20" s="1">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="E20">
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1">
         <v>3.85E-2</v>
       </c>
-      <c r="F20">
+      <c r="I20" s="1">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="1">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="C21">
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D21">
+      <c r="F21" s="1">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="F21">
+      <c r="I21" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="1">
         <v>5.33E-2</v>
       </c>
-      <c r="C22">
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="D22">
+      <c r="F22" s="1">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
+        <v>75</v>
+      </c>
+      <c r="H22" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="I22" s="1">
         <v>6.1103999999999998E-4</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>5</v>
       </c>
-      <c r="S22" t="s">
+      <c r="V22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="1">
         <v>4.02E-2</v>
       </c>
-      <c r="C23">
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="D23">
+      <c r="F23" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="I23" s="1">
         <v>3.4704000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24" s="1">
         <v>6.6E-3</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="1">
         <v>2.69E-2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1">
         <v>6.6E-3</v>
       </c>
-      <c r="D24">
+      <c r="F24" s="1">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="E24">
+      <c r="G24">
+        <v>150</v>
+      </c>
+      <c r="H24" s="1">
         <v>6.6E-3</v>
       </c>
-      <c r="F24" s="1">
+      <c r="I24" s="1">
         <v>1.5574999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="1">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="C25">
+      <c r="D25">
+        <v>250</v>
+      </c>
+      <c r="E25" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D25">
+      <c r="F25" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="E25">
+      <c r="G25">
+        <v>250</v>
+      </c>
+      <c r="H25" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="I25" s="1">
         <v>5.6508000000000002E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>500</v>
+      </c>
+      <c r="B26" s="1">
         <v>2E-3</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="C26">
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D26">
+      <c r="F26" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="E26">
+      <c r="G26">
+        <v>500</v>
+      </c>
+      <c r="H26" s="1">
         <v>2E-3</v>
       </c>
-      <c r="F26" s="1">
+      <c r="I26" s="1">
         <v>1.4209999999999999E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>750</v>
+      </c>
+      <c r="B27" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="1">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
+        <v>750</v>
+      </c>
+      <c r="E27" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D27">
+      <c r="F27" s="1">
         <v>1.8E-3</v>
       </c>
-      <c r="E27">
+      <c r="G27">
+        <v>750</v>
+      </c>
+      <c r="H27" s="1">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F27" s="1">
+      <c r="I27" s="1">
         <v>6.3280000000000002E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="1">
         <v>9.990000000000001E-4</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="1">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="C28" s="1">
-        <v>9.990000000000001E-4</v>
-      </c>
       <c r="D28">
-        <v>1.4E-3</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="1">
         <v>9.990000000000001E-4</v>
       </c>
       <c r="F28" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="I28" s="1">
         <v>3.563E-6</v>
       </c>
     </row>
